--- a/Assets/Excel Data/2023_07_27/まとめ解析.xlsx
+++ b/Assets/Excel Data/2023_07_27/まとめ解析.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\FujitaProject2023\Assets\Excel Data\2023_07_27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrivingTeam\UnityProject\Fujita_Project_2023\Assets\Excel Data\2023_07_27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6259C-C23D-424E-984A-64EDD27D5F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941EE83E-4C94-4FD3-A1A5-E76FC19D9CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-26970" yWindow="1725" windowWidth="21600" windowHeight="11775" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3087,16 +3087,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1.0479000000000001</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>0.71589999999999998</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1.1664000000000001</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1.4115</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>0.97289999999999999</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0.84740000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>1.4688000000000001</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1.2604</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1.6449</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>1.2279</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>1.3337000000000001</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>1.0508999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>0.87470000000000003</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0.92230000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>1.5549999999999999</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1.1626000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>1.2399</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0.91910000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1">
         <v>0.78110000000000002</v>
@@ -3214,7 +3214,7 @@
         <v>0.76319999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7">
         <f>AVERAGE(B2:B13)</f>
@@ -3224,7 +3224,7 @@
         <v>1.1507083333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B15">
         <f>_xlfn.STDEV.P(B2:B13)</f>
         <v>0.29096511770695471</v>
@@ -3234,7 +3234,7 @@
         <v>0.23968171067179017</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0.66249999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>0.90100000000000002</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>1.171</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>1.1807000000000001</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0.88480000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19">
         <v>1.2768999999999999</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1.4411</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20">
         <v>0.77610000000000001</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>0.60099999999999998</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21">
         <v>0.9536</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1.2206999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22">
         <v>1.0379</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>1.1361000000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23">
         <v>1.3967000000000001</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>0.755</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24">
         <v>0.80059999999999998</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>0.5514</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>1.492</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>1.149</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>0.7097</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>0.51129999999999998</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0.5968</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" s="7">
         <f>AVERAGE(B16:B27)</f>
         <v>1.0480666666666667</v>
@@ -3343,7 +3343,7 @@
         <v>0.84634166666666655</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29">
         <f>_xlfn.STDEV.P(B16:B27)</f>
         <v>0.2670124476915301</v>
@@ -3368,67 +3368,67 @@
       <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3436,12 +3436,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3465,13 +3465,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>1.2382126171983847</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
@@ -3570,12 +3570,12 @@
         <v>1.1285739487891397</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -3635,12 +3635,12 @@
         <v>0.61299846898461452</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>0.39899254207678203</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>43</v>
       </c>
@@ -3711,12 +3711,12 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>0.39905994801907452</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -3770,12 +3770,12 @@
         <v>0.39905994801907357</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>24</v>
       </c>
@@ -3871,71 +3871,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.59765625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -3943,12 +3943,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>8</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3972,13 +3972,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>1.2229750881886834</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
@@ -4077,12 +4077,12 @@
         <v>0.9389338357006306</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
         <v>29</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -4142,12 +4142,12 @@
         <v>0.28592599881268627</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>24</v>
       </c>
@@ -4193,7 +4193,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>42</v>
       </c>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="E50" s="4"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>43</v>
       </c>
@@ -4221,12 +4221,12 @@
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>46</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -4286,12 +4286,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>38</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>24</v>
       </c>
